--- a/SEM5 Testing Responses.xlsx
+++ b/SEM5 Testing Responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\00_PERSONAL\School\MED5\_P5\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torarnthpetersen/Desktop/University/5. Semester/Project/MEA-G502-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD4764E-F401-44F6-8995-75C4F822EBB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B385A7B-C713-F749-B36E-56B5FE2D4447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="37470" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7060" yWindow="-19160" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="191">
   <si>
     <t>Timestamp</t>
   </si>
@@ -559,6 +559,51 @@
   </si>
   <si>
     <t>It was easier to navigate with having the red hint on where to go. Enjoyed it more than the first version.</t>
+  </si>
+  <si>
+    <t>L0M6</t>
+  </si>
+  <si>
+    <t>I wanted more content</t>
+  </si>
+  <si>
+    <t>Too far between the notes that you had to read</t>
+  </si>
+  <si>
+    <t>A1ZY</t>
+  </si>
+  <si>
+    <t>I think there was too far between the notes</t>
+  </si>
+  <si>
+    <t>Seemed like the notes where a lot closer, which made we want to play longer. Also i liked how realistic it was with the sound and shadows!</t>
+  </si>
+  <si>
+    <t>AR2W</t>
+  </si>
+  <si>
+    <t>I thought I finished the story</t>
+  </si>
+  <si>
+    <t>LQDP</t>
+  </si>
+  <si>
+    <t>Seemed very realistic</t>
+  </si>
+  <si>
+    <t>I did not like having to follow the map</t>
+  </si>
+  <si>
+    <t>LD6L</t>
+  </si>
+  <si>
+    <t>AETL</t>
+  </si>
+  <si>
+    <t>Because I was both extremely curious about what the clues would contain and how the main character would react to the clues she found. While playing I was trying to imagine the state of the world that I was immersed and finding clues that allowed me to piece together reality clue by clue was cool as fuck. I thought the whole idea of her questioning if she was human like the pictures and then comparing herself to them was interesting as I wondered how I would react if i was in her position. Then when she saw the pictures of the robots, she did not recognize what they were but got a gut feeling that they were evil.</t>
+  </si>
+  <si>
+    <t>The game was super cool, it was a double edged sword that the game that you had to find the clues yourself. It was more fun in the sense that you got to explore the map more and see the terrain and aqua animals. Furthermore, I felt a accomplishment whenever I found a clue, which was nonexistent in the linear game. It was less fun in the sense that it was not as immersive and exploring and uncovering the physical reality of the game became the more fun objective then contemplating the clues and what they meant. I also got lost and it was immersion/breaking having to find my way back to the last clue I found and then looking near there.</t>
   </si>
 </sst>
 </file>
@@ -568,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -582,6 +627,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -604,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -612,6 +663,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,19 +883,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="41" width="21.5703125" customWidth="1"/>
+    <col min="1" max="41" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +1002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>44169.730591712963</v>
       </c>
@@ -1025,7 +1078,7 @@
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>44170.868478657409</v>
       </c>
@@ -1111,7 +1164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>44170.906335821761</v>
       </c>
@@ -1194,7 +1247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>44171.559533599539</v>
       </c>
@@ -1283,7 +1336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>44171.610606643517</v>
       </c>
@@ -1369,7 +1422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>44171.703944236113</v>
       </c>
@@ -1458,7 +1511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>44171.747870648149</v>
       </c>
@@ -1544,7 +1597,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>44172.38943570602</v>
       </c>
@@ -1630,7 +1683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>44172.482080416667</v>
       </c>
@@ -1719,7 +1772,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>44172.489615335653</v>
       </c>
@@ -1805,7 +1858,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>44172.509706168981</v>
       </c>
@@ -1894,7 +1947,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>44172.515534328704</v>
       </c>
@@ -1977,7 +2030,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>44172.53017662037</v>
       </c>
@@ -2066,7 +2119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>44172.551709837964</v>
       </c>
@@ -2161,7 +2214,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>44172.571543935184</v>
       </c>
@@ -2253,7 +2306,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>44172.57932287037</v>
       </c>
@@ -2339,7 +2392,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>44172.592263020837</v>
       </c>
@@ -2428,7 +2481,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>44172.614823784723</v>
       </c>
@@ -2523,7 +2576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>44172.637689583338</v>
       </c>
@@ -2606,7 +2659,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>44172.652065879629</v>
       </c>
@@ -2695,7 +2748,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>44172.657172499996</v>
       </c>
@@ -2778,7 +2831,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>44172.732239016201</v>
       </c>
@@ -2861,7 +2914,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>44172.989954548611</v>
       </c>
@@ -2950,7 +3003,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>44173.013398923613</v>
       </c>
@@ -3033,7 +3086,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>44173.068926932872</v>
       </c>
@@ -3116,7 +3169,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>44173.455508680556</v>
       </c>
@@ -3199,7 +3252,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>44173.457991076386</v>
       </c>
@@ -3288,7 +3341,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>44173.472807291662</v>
       </c>
@@ -3380,7 +3433,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>44173.472817314818</v>
       </c>
@@ -3469,7 +3522,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>44173.491579305555</v>
       </c>
@@ -3558,7 +3611,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>44173.500913668977</v>
       </c>
@@ -3640,6 +3693,307 @@
       <c r="AE32" s="2" t="s">
         <v>175</v>
       </c>
+    </row>
+    <row r="33" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>44173.563564814816</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="8">
+        <v>7</v>
+      </c>
+      <c r="I33" s="8">
+        <v>6</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
+        <v>10</v>
+      </c>
+      <c r="M33" s="8">
+        <v>6</v>
+      </c>
+      <c r="N33" s="8">
+        <v>5</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8">
+        <v>9</v>
+      </c>
+      <c r="U33" s="8">
+        <v>9</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>9</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>10</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>9</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD33" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE33" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+    </row>
+    <row r="34" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>44173.618159722224</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="8">
+        <v>10</v>
+      </c>
+      <c r="I34" s="8">
+        <v>9</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>10</v>
+      </c>
+      <c r="M34" s="8">
+        <v>9</v>
+      </c>
+      <c r="N34" s="8">
+        <v>9</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8">
+        <v>7</v>
+      </c>
+      <c r="U34" s="8">
+        <v>7</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0</v>
+      </c>
+      <c r="W34" s="8">
+        <v>0</v>
+      </c>
+      <c r="X34" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>9</v>
+      </c>
+      <c r="AB34" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE34" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+    </row>
+    <row r="35" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>44173.707986111112</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8">
+        <v>8</v>
+      </c>
+      <c r="I35" s="8">
+        <v>10</v>
+      </c>
+      <c r="J35" s="8">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>3</v>
+      </c>
+      <c r="L35" s="8">
+        <v>10</v>
+      </c>
+      <c r="M35" s="8">
+        <v>8</v>
+      </c>
+      <c r="N35" s="8">
+        <v>9</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8">
+        <v>6</v>
+      </c>
+      <c r="U35" s="8">
+        <v>10</v>
+      </c>
+      <c r="V35" s="8">
+        <v>1</v>
+      </c>
+      <c r="W35" s="8">
+        <v>2</v>
+      </c>
+      <c r="X35" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>8</v>
+      </c>
+      <c r="AC35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD35" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE35" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
